--- a/documents/sprint1 backlog.xlsx
+++ b/documents/sprint1 backlog.xlsx
@@ -481,28 +481,28 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -588,25 +588,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88145920"/>
-        <c:axId val="88147456"/>
+        <c:axId val="74499584"/>
+        <c:axId val="74501120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88145920"/>
+        <c:axId val="74499584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88147456"/>
+        <c:crossAx val="74501120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88147456"/>
+        <c:axId val="74501120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +641,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88145920"/>
+        <c:crossAx val="74499584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -654,7 +654,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1176,35 +1176,35 @@
       </c>
       <c r="H6" s="4">
         <f>SUM(H8:H423)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I6" s="4">
         <f>SUM(I8:I23)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J6" s="4">
         <f>SUM(J8:J23)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K6" s="4">
         <f>SUM(K8:K23)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L6" s="4">
         <f>SUM(L8:L23)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M6" s="4">
         <f>SUM(M8:M23)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N6" s="4">
         <f>SUM(N8:N423)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ref="O6:U6" si="0">SUM(O8:O23)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="0"/>
@@ -1309,8 +1309,12 @@
       <c r="G9" s="10">
         <v>6</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="10">
+        <v>4</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
@@ -1342,9 +1346,15 @@
       <c r="G10" s="10">
         <v>4</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="10">
+        <v>4</v>
+      </c>
+      <c r="I10" s="10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="10">
+        <v>2</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -1402,9 +1412,15 @@
       <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -1435,10 +1451,18 @@
       <c r="G13" s="10">
         <v>2</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+      <c r="I13" s="10">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10">
+        <v>2</v>
+      </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -1495,10 +1519,18 @@
       <c r="G15" s="10">
         <v>3</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="H15" s="10">
+        <v>3</v>
+      </c>
+      <c r="I15" s="10">
+        <v>3</v>
+      </c>
+      <c r="J15" s="10">
+        <v>3</v>
+      </c>
+      <c r="K15" s="10">
+        <v>3</v>
+      </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -1528,13 +1560,27 @@
       <c r="G16" s="10">
         <v>7</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="H16" s="10">
+        <v>7</v>
+      </c>
+      <c r="I16" s="10">
+        <v>7</v>
+      </c>
+      <c r="J16" s="10">
+        <v>7</v>
+      </c>
+      <c r="K16" s="10">
+        <v>7</v>
+      </c>
+      <c r="L16" s="10">
+        <v>7</v>
+      </c>
+      <c r="M16" s="10">
+        <v>4</v>
+      </c>
+      <c r="N16" s="10">
+        <v>2</v>
+      </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -1588,20 +1634,36 @@
       <c r="G18" s="4">
         <v>8</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
+      <c r="H18" s="4">
+        <v>8</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4">
+        <v>8</v>
+      </c>
+      <c r="K18" s="4">
+        <v>8</v>
+      </c>
+      <c r="L18" s="4">
+        <v>8</v>
+      </c>
+      <c r="M18" s="4">
+        <v>8</v>
+      </c>
+      <c r="N18" s="4">
+        <v>8</v>
+      </c>
+      <c r="O18" s="4">
+        <v>8</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1">
       <c r="A19" s="2"/>
@@ -1621,20 +1683,36 @@
       <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
+      <c r="H19" s="4">
+        <v>6</v>
+      </c>
+      <c r="I19" s="4">
+        <v>6</v>
+      </c>
+      <c r="J19" s="4">
+        <v>6</v>
+      </c>
+      <c r="K19" s="4">
+        <v>6</v>
+      </c>
+      <c r="L19" s="4">
+        <v>6</v>
+      </c>
+      <c r="M19" s="4">
+        <v>6</v>
+      </c>
+      <c r="N19" s="4">
+        <v>6</v>
+      </c>
+      <c r="O19" s="4">
+        <v>6</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1">
       <c r="A20" s="2"/>
@@ -1681,20 +1759,36 @@
       <c r="G21" s="4">
         <v>6</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
+      <c r="H21" s="4">
+        <v>6</v>
+      </c>
+      <c r="I21" s="4">
+        <v>6</v>
+      </c>
+      <c r="J21" s="4">
+        <v>6</v>
+      </c>
+      <c r="K21" s="4">
+        <v>6</v>
+      </c>
+      <c r="L21" s="4">
+        <v>6</v>
+      </c>
+      <c r="M21" s="4">
+        <v>6</v>
+      </c>
+      <c r="N21" s="4">
+        <v>6</v>
+      </c>
+      <c r="O21" s="4">
+        <v>6</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1">
       <c r="A22" s="2"/>
@@ -1714,20 +1808,36 @@
       <c r="G22" s="4">
         <v>6</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
+      <c r="H22" s="4">
+        <v>6</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6</v>
+      </c>
+      <c r="J22" s="4">
+        <v>6</v>
+      </c>
+      <c r="K22" s="4">
+        <v>6</v>
+      </c>
+      <c r="L22" s="4">
+        <v>6</v>
+      </c>
+      <c r="M22" s="4">
+        <v>6</v>
+      </c>
+      <c r="N22" s="4">
+        <v>6</v>
+      </c>
+      <c r="O22" s="4">
+        <v>6</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1">
       <c r="A23" s="2"/>
@@ -1747,20 +1857,36 @@
       <c r="G23" s="4">
         <v>6</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
+      <c r="H23" s="4">
+        <v>6</v>
+      </c>
+      <c r="I23" s="4">
+        <v>6</v>
+      </c>
+      <c r="J23" s="4">
+        <v>6</v>
+      </c>
+      <c r="K23" s="4">
+        <v>6</v>
+      </c>
+      <c r="L23" s="4">
+        <v>6</v>
+      </c>
+      <c r="M23" s="4">
+        <v>6</v>
+      </c>
+      <c r="N23" s="4">
+        <v>6</v>
+      </c>
+      <c r="O23" s="4">
+        <v>6</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="2"/>
